--- a/GunfireDungeon_Godot/excel/RoleBase.xlsx
+++ b/GunfireDungeon_Godot/excel/RoleBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>AiAttr</t>
+  </si>
+  <si>
+    <t>PhysicalResist</t>
+  </si>
+  <si>
+    <t>MagicResist</t>
+  </si>
+  <si>
+    <t>FireResist</t>
+  </si>
+  <si>
+    <t>IceResist</t>
+  </si>
+  <si>
+    <t>ThunderResist</t>
+  </si>
+  <si>
+    <t>LightResist</t>
+  </si>
+  <si>
+    <t>DarkResist</t>
+  </si>
+  <si>
+    <t>RealResist</t>
   </si>
   <si>
     <t>表Id</t>
@@ -121,6 +145,30 @@
     <t>绑定的Ai属性</t>
   </si>
   <si>
+    <t>物理属性伤害抗性
+如果为1，也就是受到的伤害为100%。
+如果为0.5，就是受到的伤害为50%
+后面几个属性抗性意义相同</t>
+  </si>
+  <si>
+    <t>魔法属性伤害抗性</t>
+  </si>
+  <si>
+    <t>火焰属性伤害抗性</t>
+  </si>
+  <si>
+    <t>冰霜属性伤害抗性</t>
+  </si>
+  <si>
+    <t>雷电属性伤害抗性</t>
+  </si>
+  <si>
+    <t>光明属性伤害抗性</t>
+  </si>
+  <si>
+    <t>暗影属性伤害抗性</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -169,6 +217,15 @@
   </si>
   <si>
     <t>敌人2</t>
+  </si>
+  <si>
+    <t>伤害抗性：</t>
+  </si>
+  <si>
+    <t>对以上伤害属性的抗性，默认为1，也就是100%伤害。</t>
+  </si>
+  <si>
+    <t>当值为0.5时，也就是受到的伤害为50%</t>
   </si>
 </sst>
 </file>
@@ -181,10 +238,30 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -654,144 +731,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,305 +1200,477 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="2" customWidth="1"/>
-    <col min="10" max="12" width="20.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="28.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15" style="4" customWidth="1"/>
+    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
+    <col min="10" max="12" width="20.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="28.75" style="4" customWidth="1"/>
     <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="23.55" customWidth="1"/>
-    <col min="18" max="18" width="20.5083333333333" customWidth="1"/>
-    <col min="19" max="19" width="23.2333333333333" customWidth="1"/>
-    <col min="20" max="21" width="9" style="2"/>
+    <col min="15" max="15" width="23.55" style="5" customWidth="1"/>
+    <col min="16" max="16" width="20.5083333333333" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.2333333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="17.75" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="6" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="15.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="16.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="23" customHeight="1" spans="1:22">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="129" customHeight="1" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    <row r="2" ht="129" customHeight="1" spans="1:22">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="30" customHeight="1" spans="1:22">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" ht="69" customHeight="1" spans="1:22">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" ht="69" customHeight="1" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>12</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>120</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>1500</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>900</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1"/>
     <row r="6" ht="69" customHeight="1"/>
-    <row r="7" ht="69" customHeight="1" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="7" ht="69" customHeight="1" spans="1:22">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4">
         <v>1000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1"/>
-    <row r="9" ht="30" customHeight="1" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2">
+    <row r="9" ht="30" customHeight="1" spans="1:22">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1500</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>900</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>3</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>40</v>
+      <c r="N9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1" spans="2:14">
-      <c r="B10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2">
+    <row r="10" ht="34" customHeight="1" spans="2:22">
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4">
         <v>25</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>15</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1500</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>900</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>3</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>42</v>
+      <c r="N10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>1</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1"/>
@@ -1419,14 +1686,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="23.25" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/GunfireDungeon_Godot/excel/RoleBase.xlsx
+++ b/GunfireDungeon_Godot/excel/RoleBase.xlsx
@@ -861,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,15 +875,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,10 +1193,10 @@
   <sheetPr/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O9" sqref="O9"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1223,8 +1214,8 @@
     <col min="15" max="15" width="23.55" style="5" customWidth="1"/>
     <col min="16" max="16" width="20.5083333333333" style="5" customWidth="1"/>
     <col min="17" max="17" width="23.2333333333333" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.75" style="6" customWidth="1"/>
-    <col min="19" max="19" width="19.5" style="6" customWidth="1"/>
+    <col min="18" max="18" width="17.75" style="5" customWidth="1"/>
+    <col min="19" max="19" width="19.5" style="5" customWidth="1"/>
     <col min="20" max="20" width="16.5" style="5" customWidth="1"/>
     <col min="21" max="21" width="15.5" style="5" customWidth="1"/>
     <col min="22" max="22" width="16.125" style="5" customWidth="1"/>
@@ -1273,28 +1264,28 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1341,28 +1332,28 @@
       <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1409,28 +1400,28 @@
       <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1483,10 +1474,10 @@
       <c r="Q4" s="5">
         <v>1</v>
       </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="6">
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
         <v>1</v>
       </c>
       <c r="T4" s="5">
@@ -1529,10 +1520,10 @@
       <c r="Q7" s="5">
         <v>1</v>
       </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
         <v>1</v>
       </c>
       <c r="T7" s="5">
@@ -1587,7 +1578,7 @@
         <v>55</v>
       </c>
       <c r="O9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -1595,10 +1586,10 @@
       <c r="Q9" s="5">
         <v>1</v>
       </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="6">
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
         <v>1</v>
       </c>
       <c r="T9" s="5">
@@ -1657,10 +1648,10 @@
       <c r="Q10" s="5">
         <v>1</v>
       </c>
-      <c r="R10" s="6">
-        <v>1</v>
-      </c>
-      <c r="S10" s="6">
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
         <v>1</v>
       </c>
       <c r="T10" s="5">

--- a/GunfireDungeon_Godot/excel/RoleBase.xlsx
+++ b/GunfireDungeon_Godot/excel/RoleBase.xlsx
@@ -1193,10 +1193,10 @@
   <sheetPr/>
   <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O10" sqref="O10"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1436,10 +1436,10 @@
         <v>51</v>
       </c>
       <c r="D4" s="4">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4">
         <v>30</v>
-      </c>
-      <c r="E4" s="4">
-        <v>12</v>
       </c>
       <c r="F4" s="4">
         <v>120</v>
@@ -1548,7 +1548,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>

--- a/GunfireDungeon_Godot/excel/RoleBase.xlsx
+++ b/GunfireDungeon_Godot/excel/RoleBase.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Friction</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
   <si>
     <t>ExtraAttr</t>
@@ -120,6 +123,10 @@
   </si>
   <si>
     <t>移动摩擦力, 仅用于人物基础移动</t>
+  </si>
+  <si>
+    <t>身高
+用于显示头顶状态属性的位置</t>
   </si>
   <si>
     <t>额外属性
@@ -1191,12 +1198,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,22 +1213,23 @@
     <col min="3" max="5" width="14" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15" style="4" customWidth="1"/>
-    <col min="9" max="9" width="29.375" style="4" customWidth="1"/>
-    <col min="10" max="12" width="20.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="28.75" style="4" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="23.55" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.5083333333333" style="5" customWidth="1"/>
-    <col min="17" max="17" width="23.2333333333333" style="5" customWidth="1"/>
-    <col min="18" max="18" width="17.75" style="5" customWidth="1"/>
-    <col min="19" max="19" width="19.5" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="15.5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="16.125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="15" style="4" customWidth="1"/>
+    <col min="10" max="10" width="29.375" style="4" customWidth="1"/>
+    <col min="11" max="13" width="20.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="28.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="23.55" style="5" customWidth="1"/>
+    <col min="17" max="17" width="20.5083333333333" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23.2333333333333" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.75" style="5" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="5" customWidth="1"/>
+    <col min="21" max="21" width="16.5" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="5" customWidth="1"/>
+    <col min="23" max="23" width="16.125" style="5" customWidth="1"/>
+    <col min="24" max="24" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:22">
+    <row r="1" ht="23" customHeight="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1261,10 +1269,10 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -1288,152 +1296,161 @@
       <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" ht="129" customHeight="1" spans="1:22">
+    <row r="2" ht="129" customHeight="1" spans="1:23">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:22">
+    <row r="3" ht="30" customHeight="1" spans="1:23">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Q3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" ht="69" customHeight="1" spans="1:22">
+    <row r="4" ht="69" customHeight="1" spans="1:23">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4">
         <v>80</v>
@@ -1450,24 +1467,24 @@
       <c r="H4" s="4">
         <v>900</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="4">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4">
         <v>2</v>
       </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
       <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
       <c r="P4" s="5">
         <v>1</v>
       </c>
@@ -1487,20 +1504,23 @@
         <v>1</v>
       </c>
       <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="69" customHeight="1"/>
     <row r="6" ht="69" customHeight="1"/>
-    <row r="7" ht="69" customHeight="1" spans="1:22">
+    <row r="7" ht="69" customHeight="1" spans="1:23">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="4">
         <v>1000</v>
@@ -1508,10 +1528,10 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="I7" s="4">
+        <v>30</v>
+      </c>
+      <c r="N7" s="4">
         <v>1</v>
       </c>
       <c r="P7" s="5">
@@ -1533,19 +1553,22 @@
         <v>1</v>
       </c>
       <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="69" customHeight="1"/>
-    <row r="9" ht="30" customHeight="1" spans="1:22">
+    <row r="9" ht="30" customHeight="1" spans="1:23">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
         <v>60</v>
@@ -1562,23 +1585,23 @@
       <c r="H9" s="4">
         <v>900</v>
       </c>
-      <c r="J9" s="4">
+      <c r="I9" s="4">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
       <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>3</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
+      <c r="O9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="P9" s="5">
         <v>1</v>
@@ -1601,13 +1624,16 @@
       <c r="V9" s="5">
         <v>1</v>
       </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="34" customHeight="1" spans="2:22">
+    <row r="10" ht="34" customHeight="1" spans="2:23">
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4">
         <v>50</v>
@@ -1624,8 +1650,8 @@
       <c r="H10" s="4">
         <v>900</v>
       </c>
-      <c r="J10" s="4">
-        <v>0</v>
+      <c r="I10" s="4">
+        <v>20</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -1634,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
         <v>3</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
+      <c r="O10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="P10" s="5">
         <v>1</v>
@@ -1661,6 +1687,9 @@
         <v>1</v>
       </c>
       <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1690,17 +1719,17 @@
   <sheetData>
     <row r="2" ht="23.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" ht="15" spans="2:2">
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="15" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
